--- a/Database-design/MOCKDATA.xlsx
+++ b/Database-design/MOCKDATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguyentha\Desktop\tai lieu thiet ke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Design-Document\Database-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A88759-DF6C-4119-9C5A-0E4B9A519F04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD73AA09-35F5-42CE-9837-67775ADA7559}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4470" xr2:uid="{DB830889-68C4-40C1-9EFC-2FAF720E7EA5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="56">
   <si>
     <t xml:space="preserve">INSERT INTO `PRODUCTS` (PRODUCT_NAME, VIEWCOUNT, SEOALIAS, IS_STATUS, DELETE_STATUS) </t>
   </si>
@@ -36,65 +36,53 @@
     <t>(</t>
   </si>
   <si>
-    <t>PRODUCT 1</t>
-  </si>
-  <si>
     <t>,0</t>
   </si>
   <si>
-    <t>,SEOALIAS PRODUC 1</t>
-  </si>
-  <si>
-    <t>,TRUE</t>
-  </si>
-  <si>
-    <t>,FALSE</t>
-  </si>
-  <si>
     <t>)</t>
   </si>
   <si>
-    <t>PRODUCT 2</t>
-  </si>
-  <si>
-    <t>PRODUCT 3</t>
-  </si>
-  <si>
-    <t>PRODUCT 4</t>
-  </si>
-  <si>
-    <t>PRODUCT 5</t>
-  </si>
-  <si>
     <t>),</t>
   </si>
   <si>
-    <t>,SEOALIAS PRODUC 2</t>
-  </si>
-  <si>
-    <t>,SEOALIAS PRODUC 3</t>
-  </si>
-  <si>
-    <t>,SEOALIAS PRODUC 4</t>
-  </si>
-  <si>
-    <t>,SEOALIAS PRODUC 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">INSERT INTO `UNITS` (UNIT_NAME, UNIT_DESCRIPTION, DELETE_STATUS) </t>
   </si>
   <si>
-    <t>THUNG</t>
-  </si>
-  <si>
-    <t>LON</t>
-  </si>
-  <si>
-    <t>LOC</t>
+    <t xml:space="preserve">INSERT INTO `PRODUCT_DETAILS` (PRODUCT_ID, PRODUCT_CODE, IS_STATUS, PRODUCT_DETAIL_DESCRIPTION) </t>
+  </si>
+  <si>
+    <t>,0001</t>
+  </si>
+  <si>
+    <t>,1</t>
+  </si>
+  <si>
+    <t>,24</t>
+  </si>
+  <si>
+    <t>,2</t>
+  </si>
+  <si>
+    <t>,6</t>
+  </si>
+  <si>
+    <t>,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO `PRODUCT_DETAILS_UNITS` (PRODUCT_DETAIL_ID, UNIT_ID, IS_MAIN, CONVERSIONRATIO,RATIO_TYPE,RATIO_TO_UNIT,IS_STATUS) </t>
+  </si>
+  <si>
+    <t>"THUNG"</t>
+  </si>
+  <si>
+    <t>"LON"</t>
+  </si>
+  <si>
+    <t>"LOC"</t>
   </si>
   <si>
     <r>
-      <t>M</t>
+      <t>"M</t>
     </r>
     <r>
       <rPr>
@@ -107,63 +95,127 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <t>CHAI</t>
-  </si>
-  <si>
-    <t>KIEN</t>
-  </si>
-  <si>
-    <t>,THUNG</t>
-  </si>
-  <si>
-    <t>,LON</t>
-  </si>
-  <si>
-    <t>,LOC</t>
-  </si>
-  <si>
-    <t>,M2</t>
-  </si>
-  <si>
-    <t>,CHAI</t>
-  </si>
-  <si>
-    <t>,KIEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSERT INTO `PRODUCT_DETAILS` (PRODUCT_ID, PRODUCT_CODE, IS_STATUS, PRODUCT_DETAIL_DESCRIPTION) </t>
-  </si>
-  <si>
-    <t>,0001</t>
-  </si>
-  <si>
-    <t>, PRODUCT_DETAIL_DESCRIPTION_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSERT INTO `PRODUCT_DETAILS_UNITS` (PRODUCT_DETAIL_ID, UNIT_ID, IS_MAIN, CONVERSIONRATIO,RATIO_TYPE) </t>
-  </si>
-  <si>
-    <t>,1</t>
-  </si>
-  <si>
-    <t>,24</t>
-  </si>
-  <si>
-    <t>DVT</t>
-  </si>
-  <si>
-    <t>,2</t>
-  </si>
-  <si>
-    <t>,6</t>
-  </si>
-  <si>
-    <t>,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSERT INTO `PRODUCT_DETAILS_UNITS_INVENTORIES` (PRODUCT_DETAIL_ID, UNIT_ID, IS_MAIN, CONVERSIONRATIO,RATIO_TYPE,INPUT_DATE,UNIT_PRICE,RETAIL_PRICE,WHOLESALE_PRICE, SALE_PRICE, RATIO_TO_UNIT, QUANTITY,IS_STATUS) </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>"CHAI"</t>
+  </si>
+  <si>
+    <t>"KIEN"</t>
+  </si>
+  <si>
+    <t>,"THUNG"</t>
+  </si>
+  <si>
+    <t>,"LON"</t>
+  </si>
+  <si>
+    <t>,"LOC"</t>
+  </si>
+  <si>
+    <t>,"M2"</t>
+  </si>
+  <si>
+    <t>,"CHAI"</t>
+  </si>
+  <si>
+    <t>,"KIEN"</t>
+  </si>
+  <si>
+    <t>"PRODUCT 1"</t>
+  </si>
+  <si>
+    <t>"PRODUCT 2"</t>
+  </si>
+  <si>
+    <t>"PRODUCT 3"</t>
+  </si>
+  <si>
+    <t>"PRODUCT 4"</t>
+  </si>
+  <si>
+    <t>"PRODUCT 5"</t>
+  </si>
+  <si>
+    <t>,"SEOALIAS PRODUC 1"</t>
+  </si>
+  <si>
+    <t>,"SEOALIAS PRODUC 2"</t>
+  </si>
+  <si>
+    <t>,"SEOALIAS PRODUC 3"</t>
+  </si>
+  <si>
+    <t>,"SEOALIAS PRODUC 4"</t>
+  </si>
+  <si>
+    <t>,"SEOALIAS PRODUC 5"</t>
+  </si>
+  <si>
+    <t>, "PRODUCT_DETAIL_DESCRIPTION_1"</t>
+  </si>
+  <si>
+    <t>,"Default"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO `PRODUCT_DETAIL_UNIT_INVENTORIES` (PRODUCT_DETAIL_UNIT_ID, INPUT_DATE, UNIT_PRICE, RETAIL_PRICE,WHOLESALE_PRICE,SALE_PRICE,QUANTITY,IS_STATUS,PRODUCT_DETAIL_BARCODE) </t>
+  </si>
+  <si>
+    <t>,NOW()</t>
+  </si>
+  <si>
+    <t>,8000</t>
+  </si>
+  <si>
+    <t>,10000</t>
+  </si>
+  <si>
+    <t>,8500</t>
+  </si>
+  <si>
+    <t>,240</t>
+  </si>
+  <si>
+    <t>,48000</t>
+  </si>
+  <si>
+    <t>,60000</t>
+  </si>
+  <si>
+    <t>,51000</t>
+  </si>
+  <si>
+    <t>,40</t>
+  </si>
+  <si>
+    <t>,192000</t>
+  </si>
+  <si>
+    <t>,240000</t>
+  </si>
+  <si>
+    <t>,204000</t>
+  </si>
+  <si>
+    <t>,10</t>
+  </si>
+  <si>
+    <t>,"112192"</t>
+  </si>
+  <si>
+    <t>,"112080"</t>
+  </si>
+  <si>
+    <t>,"112085"</t>
   </si>
 </sst>
 </file>
@@ -526,23 +578,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193882C9-81AB-42AF-9AD3-D7CFEB9355E0}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -551,90 +609,90 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
@@ -644,22 +702,22 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -667,22 +725,22 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -690,22 +748,22 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -713,22 +771,22 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -736,27 +794,27 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -768,21 +826,21 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -794,22 +852,28 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -817,22 +881,28 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -840,30 +910,137 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
         <v>38</v>
       </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" t="s">
-        <v>37</v>
-      </c>
       <c r="I30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
       <c r="C35" t="s">
         <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
